--- a/Optimization models (Pyomo)/CORDOBA/DemandaClie.xlsx
+++ b/Optimization models (Pyomo)/CORDOBA/DemandaClie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\PROYECTO DE QUESO COSTEÑO\FASE III\Noviembre\MODELO DE OPTIMIZACION - Pyomo\CORDOBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\HENRY\OptimizationModel\Optimization models (Pyomo)\CORDOBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A058B181-056C-4F96-9B83-9ACE7375CEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A02E97-AB84-42A7-8DC8-2CA65D64017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57ED7F04-590F-4DFB-8A0B-183F1487E421}"/>
   </bookViews>
@@ -36,18 +36,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
   <si>
     <t>DemandaClie</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Clientes 1</t>
+  </si>
+  <si>
+    <t>Queso duro</t>
+  </si>
+  <si>
+    <t>Queso blando</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
   </si>
 </sst>
 </file>
@@ -402,33 +447,33 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D25"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
@@ -436,13 +481,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
@@ -450,13 +495,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4">
@@ -464,13 +509,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5">
@@ -478,13 +523,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6">
@@ -492,13 +537,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
@@ -506,13 +551,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
@@ -520,13 +565,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9">
@@ -534,13 +579,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
@@ -548,13 +593,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11">
@@ -562,13 +607,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12">
@@ -576,13 +621,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
@@ -590,13 +635,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14">
@@ -604,13 +649,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15">
@@ -618,13 +663,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16">
@@ -632,13 +677,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17">
@@ -646,13 +691,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18">
@@ -660,13 +705,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19">
@@ -674,13 +719,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20">
@@ -688,13 +733,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21">
@@ -702,13 +747,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
@@ -716,13 +761,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23">
@@ -730,13 +775,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24">
@@ -744,13 +789,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25">

--- a/Optimization models (Pyomo)/CORDOBA/DemandaClie.xlsx
+++ b/Optimization models (Pyomo)/CORDOBA/DemandaClie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\HENRY\OptimizationModel\Optimization models (Pyomo)\CORDOBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A02E97-AB84-42A7-8DC8-2CA65D64017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BE6925-32EF-4A67-B495-D9444A31C0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57ED7F04-590F-4DFB-8A0B-183F1487E421}"/>
   </bookViews>
@@ -36,48 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="7">
   <si>
     <t>DemandaClie</t>
-  </si>
-  <si>
-    <t>Enero</t>
-  </si>
-  <si>
-    <t>Febrero</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>Junio</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>Octubre</t>
-  </si>
-  <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
-    <t>Diciembre</t>
-  </si>
-  <si>
-    <t>Clientes 1</t>
   </si>
   <si>
     <t>Queso duro</t>
@@ -93,6 +54,9 @@
   </si>
   <si>
     <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Cliente 1</t>
   </si>
 </sst>
 </file>
@@ -447,20 +411,20 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -468,12 +432,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
@@ -482,12 +446,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
@@ -496,12 +460,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
@@ -510,12 +474,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
@@ -524,12 +488,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
@@ -538,12 +502,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
@@ -552,12 +516,12 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
       <c r="D8">
@@ -566,12 +530,12 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
       <c r="D9">
@@ -580,12 +544,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
@@ -594,12 +558,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
@@ -608,12 +572,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
         <v>11</v>
       </c>
       <c r="D12">
@@ -622,12 +586,12 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
@@ -636,12 +600,12 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
@@ -650,12 +614,12 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
@@ -664,12 +628,12 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
@@ -678,12 +642,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4</v>
       </c>
       <c r="D17">
@@ -692,12 +656,12 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
         <v>5</v>
       </c>
       <c r="D18">
@@ -706,12 +670,12 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
         <v>6</v>
       </c>
       <c r="D19">
@@ -720,12 +684,12 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
@@ -734,12 +698,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>8</v>
       </c>
       <c r="D21">
@@ -748,12 +712,12 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
         <v>9</v>
       </c>
       <c r="D22">
@@ -762,12 +726,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
         <v>10</v>
       </c>
       <c r="D23">
@@ -776,12 +740,12 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
         <v>11</v>
       </c>
       <c r="D24">
@@ -790,12 +754,12 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
         <v>12</v>
       </c>
       <c r="D25">
